--- a/MyList.xlsx
+++ b/MyList.xlsx
@@ -10,12 +10,12 @@
     <sheet name="PYTHON" sheetId="1" r:id="rId1"/>
     <sheet name="DATABASE" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1"/>
@@ -55,34 +55,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>第一章：正</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>则</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>表达式</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SQL必知必会</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -150,7 +122,85 @@
   </si>
   <si>
     <r>
-      <t>第二章：网</t>
+      <t>tcp 服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务器、客户端</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>udp 服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务器、客户端</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">第7章：Microsoft Office </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>程</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>第1章：正</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>则表达式</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>第2章：网</t>
     </r>
     <r>
       <rPr>
@@ -454,28 +504,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -785,17 +835,17 @@
   <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="12"/>
-    <col min="2" max="2" width="11.625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="2" width="11.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -804,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>1</v>
@@ -821,103 +871,113 @@
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="7"/>
+      <c r="B6" s="4">
+        <v>43069</v>
+      </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="15"/>
+      <c r="E6" s="11" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="7"/>
+      <c r="B7" s="4">
+        <v>43069</v>
+      </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="15"/>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="15"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="15"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="15"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="15"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="15"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="15"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="7"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="15"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="7"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="15"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="7"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="15"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="7"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="15"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="7"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="15"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="17"/>
+      <c r="E19" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -946,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>1</v>
@@ -959,147 +1019,147 @@
       <c r="B4" s="4">
         <v>43060</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>4</v>
+      <c r="C4" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="13" t="s">
-        <v>8</v>
+      <c r="E4" s="16" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>43068</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="14"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="15"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="15"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="15"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="15"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="15"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="15"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="15"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="15"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="7"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="15"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="7"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="15"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="7"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="15"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="7"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="15"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="7"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="15"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="7"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="15"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="7"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="15"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="7"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="15"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="7"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="15"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="7"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="15"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="7"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="15"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="7"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="15"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="7"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="15"/>
+      <c r="E26" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/MyList.xlsx
+++ b/MyList.xlsx
@@ -156,33 +156,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">第7章：Microsoft Office </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>编</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>程</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <t>第1章：正</t>
     </r>
     <r>
@@ -212,6 +185,23 @@
         <scheme val="minor"/>
       </rPr>
       <t>络编程</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>第4章：多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线程编程</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -835,7 +825,7 @@
   <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -871,7 +861,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>6</v>
@@ -881,7 +871,7 @@
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>8</v>
@@ -899,11 +889,11 @@
     </row>
     <row r="7" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
-        <v>43069</v>
+        <v>43070</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" s="11"/>
     </row>
